--- a/data/trans_orig/P79_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A55CF417-1B4A-48CC-976F-2AF2A2A41F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76234F09-9063-478F-9FB4-A6AE8660D4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4FCF57F5-827F-433D-8CC4-FBA370EAA2A4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9DA8CBD5-31CC-481E-B049-B504595BF42F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="218">
   <si>
     <t>Población según si en los últimos 2 años han sufrido algún tipo de agresión  física, emocional o sexual por alguna persona diferente a su pareja en 2023 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>99,94%</t>
   </si>
   <si>
-    <t>99,65%</t>
+    <t>99,68%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,13 +83,13 @@
     <t>99,51%</t>
   </si>
   <si>
-    <t>97,57%</t>
+    <t>97,52%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,43%</t>
+    <t>98,69%</t>
   </si>
   <si>
     <t>Sí, por otra persona desconocida</t>
@@ -122,19 +122,19 @@
     <t>0,06%</t>
   </si>
   <si>
-    <t>0,35%</t>
+    <t>0,32%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,43%</t>
+    <t>2,48%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,57%</t>
+    <t>1,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -146,7 +146,7 @@
     <t>98,72%</t>
   </si>
   <si>
-    <t>96,25%</t>
+    <t>95,82%</t>
   </si>
   <si>
     <t>99,73%</t>
@@ -155,529 +155,538 @@
     <t>98,78%</t>
   </si>
   <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>3,61%</t>
+    <t>4,16%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
   </si>
   <si>
     <t>0,13%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
+    <t>0,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1092,7 +1101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B021D0-ADEB-4041-97B0-D091C6719CAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376A2A99-7160-49E2-BEEE-4F90B8665765}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1662,7 +1671,7 @@
         <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1683,7 +1692,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1692,13 +1701,13 @@
         <v>751</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1707,13 +1716,13 @@
         <v>2213</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,13 +1737,13 @@
         <v>1394</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1743,13 +1752,13 @@
         <v>2260</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1758,13 +1767,13 @@
         <v>3654</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,7 +1829,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1832,13 +1841,13 @@
         <v>315137</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>526</v>
@@ -1847,13 +1856,13 @@
         <v>365085</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>876</v>
@@ -1862,13 +1871,13 @@
         <v>680222</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,13 +1892,13 @@
         <v>6041</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -1898,13 +1907,13 @@
         <v>4014</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -1913,13 +1922,13 @@
         <v>10055</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1943,13 @@
         <v>743</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -1949,13 +1958,13 @@
         <v>2496</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -1964,13 +1973,13 @@
         <v>3239</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,13 +1994,13 @@
         <v>319</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2000,13 +2009,13 @@
         <v>1689</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2015,13 +2024,13 @@
         <v>2007</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2042,7 +2051,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2072,7 +2081,7 @@
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,7 +2137,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2140,13 +2149,13 @@
         <v>318670</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H22" s="7">
         <v>594</v>
@@ -2155,13 +2164,13 @@
         <v>424050</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="M22" s="7">
         <v>883</v>
@@ -2170,13 +2179,13 @@
         <v>742720</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,7 +2206,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -2206,13 +2215,13 @@
         <v>1361</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -2221,13 +2230,13 @@
         <v>2507</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,13 +2251,13 @@
         <v>2424</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -2257,13 +2266,13 @@
         <v>1399</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -2272,13 +2281,13 @@
         <v>3823</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,7 +2308,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2314,7 +2323,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2350,7 +2359,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2359,7 +2368,7 @@
         <v>1745</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>19</v>
@@ -2374,7 +2383,7 @@
         <v>1745</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>19</v>
@@ -2505,7 +2514,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2520,7 +2529,7 @@
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2535,7 +2544,7 @@
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,7 +2565,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2571,7 +2580,7 @@
         <v>20</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2586,7 +2595,7 @@
         <v>20</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,7 +2616,7 @@
         <v>20</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2622,7 +2631,7 @@
         <v>20</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2637,7 +2646,7 @@
         <v>20</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,7 +2667,7 @@
         <v>20</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -2667,13 +2676,13 @@
         <v>1727</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2682,13 +2691,13 @@
         <v>1727</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,7 +2753,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2756,13 +2765,13 @@
         <v>273917</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H34" s="7">
         <v>457</v>
@@ -2771,10 +2780,10 @@
         <v>274440</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>11</v>
@@ -2786,13 +2795,13 @@
         <v>548358</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,13 +2816,13 @@
         <v>2752</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -2840,10 +2849,10 @@
         <v>137</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,7 +2873,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -2873,13 +2882,13 @@
         <v>516</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -2888,13 +2897,13 @@
         <v>516</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,7 +2924,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -2930,7 +2939,7 @@
         <v>20</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -2945,7 +2954,7 @@
         <v>20</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2969,13 @@
         <v>554</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -2981,7 +2990,7 @@
         <v>20</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -2990,13 +2999,13 @@
         <v>554</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,7 +3061,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3064,13 +3073,13 @@
         <v>605316</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H40" s="7">
         <v>935</v>
@@ -3079,13 +3088,13 @@
         <v>784276</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="M40" s="7">
         <v>1517</v>
@@ -3094,13 +3103,13 @@
         <v>1389594</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3124,13 @@
         <v>8064</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
@@ -3130,13 +3139,13 @@
         <v>4778</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M41" s="7">
         <v>13</v>
@@ -3145,13 +3154,13 @@
         <v>12842</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3175,13 @@
         <v>7301</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -3181,13 +3190,13 @@
         <v>4805</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M42" s="7">
         <v>10</v>
@@ -3196,13 +3205,13 @@
         <v>12105</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3226,13 @@
         <v>3713</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -3232,13 +3241,13 @@
         <v>696</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="M43" s="7">
         <v>3</v>
@@ -3247,13 +3256,13 @@
         <v>4409</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,7 +3283,7 @@
         <v>19</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="H44" s="7">
         <v>9</v>
@@ -3283,13 +3292,13 @@
         <v>6496</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M44" s="7">
         <v>11</v>
@@ -3301,10 +3310,10 @@
         <v>137</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,7 +3369,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3372,13 +3381,13 @@
         <v>830533</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H46" s="7">
         <v>1044</v>
@@ -3387,13 +3396,13 @@
         <v>852835</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M46" s="7">
         <v>1781</v>
@@ -3402,13 +3411,13 @@
         <v>1683368</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3432,13 @@
         <v>18523</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H47" s="7">
         <v>6</v>
@@ -3438,13 +3447,13 @@
         <v>5915</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="M47" s="7">
         <v>22</v>
@@ -3453,13 +3462,13 @@
         <v>24439</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3483,13 @@
         <v>8228</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H48" s="7">
         <v>6</v>
@@ -3489,13 +3498,13 @@
         <v>5724</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M48" s="7">
         <v>13</v>
@@ -3504,13 +3513,13 @@
         <v>13952</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3534,13 @@
         <v>954</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="H49" s="7">
         <v>2</v>
@@ -3540,13 +3549,13 @@
         <v>1524</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="M49" s="7">
         <v>3</v>
@@ -3555,13 +3564,13 @@
         <v>2477</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,7 +3591,7 @@
         <v>20</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H50" s="7">
         <v>2</v>
@@ -3591,13 +3600,13 @@
         <v>965</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="M50" s="7">
         <v>2</v>
@@ -3680,13 +3689,13 @@
         <v>3312347</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H52" s="7">
         <v>5285</v>
@@ -3695,28 +3704,28 @@
         <v>3745019</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M52" s="7">
         <v>8597</v>
       </c>
       <c r="N52" s="7">
-        <v>7057366</v>
+        <v>7057367</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3740,13 @@
         <v>40329</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>205</v>
+        <v>50</v>
       </c>
       <c r="H53" s="7">
         <v>23</v>
@@ -3749,10 +3758,10 @@
         <v>51</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M53" s="7">
         <v>56</v>
@@ -3761,13 +3770,13 @@
         <v>59153</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,10 +3794,10 @@
         <v>48</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H54" s="7">
         <v>20</v>
@@ -3797,13 +3806,13 @@
         <v>16574</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="M54" s="7">
         <v>37</v>
@@ -3815,10 +3824,10 @@
         <v>29</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3842,13 @@
         <v>6447</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>27</v>
+        <v>213</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="H55" s="7">
         <v>5</v>
@@ -3848,13 +3857,13 @@
         <v>4659</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="M55" s="7">
         <v>11</v>
@@ -3866,10 +3875,10 @@
         <v>54</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>49</v>
+        <v>213</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,13 +3893,13 @@
         <v>4461</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="H56" s="7">
         <v>17</v>
@@ -3902,10 +3911,10 @@
         <v>46</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="M56" s="7">
         <v>22</v>
@@ -3914,13 +3923,13 @@
         <v>18980</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,7 +3971,7 @@
         <v>8723</v>
       </c>
       <c r="N57" s="7">
-        <v>7181876</v>
+        <v>7181877</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>33</v>
@@ -3976,7 +3985,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P79_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76234F09-9063-478F-9FB4-A6AE8660D4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4458FF62-1D61-4BFE-A4CB-6A00A7639308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9DA8CBD5-31CC-481E-B049-B504595BF42F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F6BB07D3-B432-4907-B99D-E7A432C7A33F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1101,7 +1101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376A2A99-7160-49E2-BEEE-4F90B8665765}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05FBDAD-50CD-49D0-8763-F08C8A1DEA85}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P79_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4458FF62-1D61-4BFE-A4CB-6A00A7639308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D91B894-7628-473B-96EF-0599994877C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F6BB07D3-B432-4907-B99D-E7A432C7A33F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E18060C5-8BDD-42FD-A280-9E87BE371A96}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="215">
   <si>
     <t>Población según si en los últimos 2 años han sufrido algún tipo de agresión  física, emocional o sexual por alguna persona diferente a su pareja en 2023 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -74,619 +74,610 @@
     <t>99,94%</t>
   </si>
   <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>Sí, por otra persona desconocida</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>Sí, por otra persona conocida</t>
+  </si>
+  <si>
+    <t>Sí, por algún familiar</t>
+  </si>
+  <si>
+    <t>Sí, por mi pareja/expareja</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Sí, por otra persona desconocida</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>Sí, por otra persona conocida</t>
-  </si>
-  <si>
-    <t>Sí, por algún familiar</t>
-  </si>
-  <si>
-    <t>Sí, por mi pareja/expareja</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
+    <t>0,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1101,7 +1092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05FBDAD-50CD-49D0-8763-F08C8A1DEA85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C38F8F-0E16-49E3-8F5A-C017E3AC53DB}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1671,7 +1662,7 @@
         <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1692,7 +1683,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1701,13 +1692,13 @@
         <v>751</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1716,13 +1707,13 @@
         <v>2213</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,13 +1728,13 @@
         <v>1394</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1752,13 +1743,13 @@
         <v>2260</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1767,13 +1758,13 @@
         <v>3654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,7 +1820,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1841,13 +1832,13 @@
         <v>315137</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>526</v>
@@ -1856,13 +1847,13 @@
         <v>365085</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>876</v>
@@ -1871,13 +1862,13 @@
         <v>680222</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,13 +1883,13 @@
         <v>6041</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -1907,13 +1898,13 @@
         <v>4014</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -1922,13 +1913,13 @@
         <v>10055</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,13 +1934,13 @@
         <v>743</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -1958,13 +1949,13 @@
         <v>2496</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -1973,13 +1964,13 @@
         <v>3239</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,13 +1985,13 @@
         <v>319</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2009,13 +2000,13 @@
         <v>1689</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2024,13 +2015,13 @@
         <v>2007</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2051,7 +2042,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2081,7 +2072,7 @@
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,7 +2128,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2149,13 +2140,13 @@
         <v>318670</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H22" s="7">
         <v>594</v>
@@ -2164,13 +2155,13 @@
         <v>424050</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="M22" s="7">
         <v>883</v>
@@ -2179,13 +2170,13 @@
         <v>742720</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,7 +2197,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -2215,13 +2206,13 @@
         <v>1361</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -2230,13 +2221,13 @@
         <v>2507</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,13 +2242,13 @@
         <v>2424</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -2266,13 +2257,13 @@
         <v>1399</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -2281,13 +2272,13 @@
         <v>3823</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,7 +2299,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2323,7 +2314,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2359,7 +2350,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2368,7 +2359,7 @@
         <v>1745</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>19</v>
@@ -2383,7 +2374,7 @@
         <v>1745</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>19</v>
@@ -2514,7 +2505,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2529,7 +2520,7 @@
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2544,7 +2535,7 @@
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,7 +2556,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2580,7 +2571,7 @@
         <v>20</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2595,7 +2586,7 @@
         <v>20</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,7 +2607,7 @@
         <v>20</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2631,7 +2622,7 @@
         <v>20</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2646,7 +2637,7 @@
         <v>20</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,7 +2658,7 @@
         <v>20</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -2676,13 +2667,13 @@
         <v>1727</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2691,13 +2682,13 @@
         <v>1727</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,7 +2744,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2765,13 +2756,13 @@
         <v>273917</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H34" s="7">
         <v>457</v>
@@ -2780,10 +2771,10 @@
         <v>274440</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>11</v>
@@ -2795,13 +2786,13 @@
         <v>548358</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2807,13 @@
         <v>2752</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -2849,10 +2840,10 @@
         <v>137</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,7 +2864,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -2882,13 +2873,13 @@
         <v>516</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -2897,13 +2888,13 @@
         <v>516</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,7 +2915,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -2939,7 +2930,7 @@
         <v>20</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -2954,7 +2945,7 @@
         <v>20</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2960,13 @@
         <v>554</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -2990,7 +2981,7 @@
         <v>20</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -2999,13 +2990,13 @@
         <v>554</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,7 +3052,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3073,13 +3064,13 @@
         <v>605316</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H40" s="7">
         <v>935</v>
@@ -3088,13 +3079,13 @@
         <v>784276</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="M40" s="7">
         <v>1517</v>
@@ -3103,13 +3094,13 @@
         <v>1389594</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3115,13 @@
         <v>8064</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
@@ -3139,13 +3130,13 @@
         <v>4778</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M41" s="7">
         <v>13</v>
@@ -3154,13 +3145,13 @@
         <v>12842</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3166,13 @@
         <v>7301</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -3190,13 +3181,13 @@
         <v>4805</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M42" s="7">
         <v>10</v>
@@ -3205,13 +3196,13 @@
         <v>12105</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,13 +3217,13 @@
         <v>3713</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -3241,13 +3232,13 @@
         <v>696</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="M43" s="7">
         <v>3</v>
@@ -3256,13 +3247,13 @@
         <v>4409</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,7 +3274,7 @@
         <v>19</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H44" s="7">
         <v>9</v>
@@ -3292,13 +3283,13 @@
         <v>6496</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M44" s="7">
         <v>11</v>
@@ -3310,10 +3301,10 @@
         <v>137</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,7 +3360,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3381,13 +3372,13 @@
         <v>830533</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H46" s="7">
         <v>1044</v>
@@ -3396,13 +3387,13 @@
         <v>852835</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M46" s="7">
         <v>1781</v>
@@ -3411,13 +3402,13 @@
         <v>1683368</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3423,13 @@
         <v>18523</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H47" s="7">
         <v>6</v>
@@ -3447,13 +3438,13 @@
         <v>5915</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>60</v>
+        <v>183</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="M47" s="7">
         <v>22</v>
@@ -3462,13 +3453,13 @@
         <v>24439</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3474,13 @@
         <v>8228</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H48" s="7">
         <v>6</v>
@@ -3498,13 +3489,13 @@
         <v>5724</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M48" s="7">
         <v>13</v>
@@ -3513,13 +3504,13 @@
         <v>13952</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3525,13 @@
         <v>954</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="H49" s="7">
         <v>2</v>
@@ -3549,13 +3540,13 @@
         <v>1524</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="M49" s="7">
         <v>3</v>
@@ -3564,13 +3555,13 @@
         <v>2477</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,7 +3582,7 @@
         <v>20</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H50" s="7">
         <v>2</v>
@@ -3600,13 +3591,13 @@
         <v>965</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="M50" s="7">
         <v>2</v>
@@ -3689,13 +3680,13 @@
         <v>3312347</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H52" s="7">
         <v>5285</v>
@@ -3704,28 +3695,28 @@
         <v>3745019</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="L52" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M52" s="7">
         <v>8597</v>
       </c>
       <c r="N52" s="7">
-        <v>7057367</v>
+        <v>7057366</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3731,13 @@
         <v>40329</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H53" s="7">
         <v>23</v>
@@ -3758,10 +3749,10 @@
         <v>51</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M53" s="7">
         <v>56</v>
@@ -3770,13 +3761,13 @@
         <v>59153</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P53" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="Q53" s="7" t="s">
-        <v>209</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,10 +3785,10 @@
         <v>48</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H54" s="7">
         <v>20</v>
@@ -3806,13 +3797,13 @@
         <v>16574</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>211</v>
+        <v>61</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="M54" s="7">
         <v>37</v>
@@ -3824,10 +3815,10 @@
         <v>29</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,13 +3833,13 @@
         <v>6447</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="H55" s="7">
         <v>5</v>
@@ -3857,13 +3848,13 @@
         <v>4659</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="M55" s="7">
         <v>11</v>
@@ -3875,10 +3866,10 @@
         <v>54</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,13 +3884,13 @@
         <v>4461</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="H56" s="7">
         <v>17</v>
@@ -3911,10 +3902,10 @@
         <v>46</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="M56" s="7">
         <v>22</v>
@@ -3923,13 +3914,13 @@
         <v>18980</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,7 +3962,7 @@
         <v>8723</v>
       </c>
       <c r="N57" s="7">
-        <v>7181877</v>
+        <v>7181876</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>33</v>
@@ -3985,7 +3976,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P79_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D91B894-7628-473B-96EF-0599994877C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7737854A-5A08-49B3-97AA-5AC8D6CE7D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E18060C5-8BDD-42FD-A280-9E87BE371A96}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6A7AA885-04E5-4762-86A0-B71A4CB8AD4C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="211">
   <si>
     <t>Población según si en los últimos 2 años han sufrido algún tipo de agresión  física, emocional o sexual por alguna persona diferente a su pareja en 2023 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -71,613 +71,601 @@
     <t>No</t>
   </si>
   <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>Sí, por otra persona desconocida</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>Sí, por otra persona conocida</t>
+  </si>
+  <si>
+    <t>Sí, por algún familiar</t>
+  </si>
+  <si>
+    <t>Sí, por mi pareja/expareja</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
     <t>99,94%</t>
   </si>
   <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>Sí, por otra persona desconocida</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>Sí, por otra persona conocida</t>
-  </si>
-  <si>
-    <t>Sí, por algún familiar</t>
-  </si>
-  <si>
-    <t>Sí, por mi pareja/expareja</t>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
     <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1092,7 +1080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C38F8F-0E16-49E3-8F5A-C017E3AC53DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87B42F9-0861-4B7A-9EF1-C56D87798E24}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1213,7 +1201,7 @@
         <v>330</v>
       </c>
       <c r="D4" s="7">
-        <v>260139</v>
+        <v>311274</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1228,7 +1216,7 @@
         <v>537</v>
       </c>
       <c r="I4" s="7">
-        <v>270077</v>
+        <v>288069</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1243,7 +1231,7 @@
         <v>867</v>
       </c>
       <c r="N4" s="7">
-        <v>530214</v>
+        <v>599342</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1417,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>27</v>
@@ -1432,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>1326</v>
+        <v>1566</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>29</v>
@@ -1447,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>1486</v>
+        <v>1735</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
@@ -1468,7 +1456,7 @@
         <v>331</v>
       </c>
       <c r="D9" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>33</v>
@@ -1483,7 +1471,7 @@
         <v>538</v>
       </c>
       <c r="I9" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>33</v>
@@ -1498,7 +1486,7 @@
         <v>869</v>
       </c>
       <c r="N9" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>33</v>
@@ -1521,7 +1509,7 @@
         <v>379</v>
       </c>
       <c r="D10" s="7">
-        <v>512638</v>
+        <v>511409</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>35</v>
@@ -1536,7 +1524,7 @@
         <v>708</v>
       </c>
       <c r="I10" s="7">
-        <v>546389</v>
+        <v>507414</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>38</v>
@@ -1551,7 +1539,7 @@
         <v>1087</v>
       </c>
       <c r="N10" s="7">
-        <v>1059027</v>
+        <v>1018822</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>41</v>
@@ -1572,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>3803</v>
+        <v>4116</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>44</v>
@@ -1587,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>2090</v>
+        <v>1922</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>46</v>
@@ -1602,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>5893</v>
+        <v>6038</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>48</v>
@@ -1638,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>1635</v>
+        <v>1516</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>52</v>
@@ -1653,7 +1641,7 @@
         <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>1635</v>
+        <v>1516</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>54</v>
@@ -1674,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1462</v>
+        <v>1495</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>31</v>
@@ -1689,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>751</v>
+        <v>717</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>57</v>
@@ -1704,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>59</v>
@@ -1725,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1394</v>
+        <v>1370</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>61</v>
@@ -1740,7 +1728,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>2260</v>
+        <v>2087</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>63</v>
@@ -1749,22 +1737,22 @@
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>3654</v>
+        <v>3457</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1776,7 +1764,7 @@
         <v>382</v>
       </c>
       <c r="D15" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>33</v>
@@ -1791,7 +1779,7 @@
         <v>715</v>
       </c>
       <c r="I15" s="7">
-        <v>553125</v>
+        <v>513656</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>33</v>
@@ -1806,7 +1794,7 @@
         <v>1097</v>
       </c>
       <c r="N15" s="7">
-        <v>1072422</v>
+        <v>1032045</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>33</v>
@@ -1820,7 +1808,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1829,46 +1817,46 @@
         <v>350</v>
       </c>
       <c r="D16" s="7">
-        <v>315137</v>
+        <v>309108</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>526</v>
       </c>
       <c r="I16" s="7">
-        <v>365085</v>
+        <v>341452</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
         <v>876</v>
       </c>
       <c r="N16" s="7">
-        <v>680222</v>
+        <v>650559</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,46 +1868,46 @@
         <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>6041</v>
+        <v>5902</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>4014</v>
+        <v>3777</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
       </c>
       <c r="N17" s="7">
-        <v>10055</v>
+        <v>9679</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,46 +1919,46 @@
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>743</v>
+        <v>714</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>2496</v>
+        <v>2305</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>3239</v>
+        <v>3019</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>55</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,46 +1970,46 @@
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>1689</v>
+        <v>1594</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>2007</v>
+        <v>1920</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2042,7 +2030,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2084,7 +2072,7 @@
         <v>360</v>
       </c>
       <c r="D21" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>33</v>
@@ -2099,7 +2087,7 @@
         <v>536</v>
       </c>
       <c r="I21" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>33</v>
@@ -2114,7 +2102,7 @@
         <v>896</v>
       </c>
       <c r="N21" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>33</v>
@@ -2128,7 +2116,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2137,46 +2125,46 @@
         <v>289</v>
       </c>
       <c r="D22" s="7">
-        <v>318670</v>
+        <v>309040</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H22" s="7">
         <v>594</v>
       </c>
       <c r="I22" s="7">
-        <v>424050</v>
+        <v>471525</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="M22" s="7">
         <v>883</v>
       </c>
       <c r="N22" s="7">
-        <v>742720</v>
+        <v>780564</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>1146</v>
+        <v>1114</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>22</v>
@@ -2197,37 +2185,37 @@
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>1361</v>
+        <v>1272</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>2507</v>
+        <v>2386</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,25 +2227,25 @@
         <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>2424</v>
+        <v>2403</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>1399</v>
+        <v>1312</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>19</v>
@@ -2269,7 +2257,7 @@
         <v>4</v>
       </c>
       <c r="N24" s="7">
-        <v>3823</v>
+        <v>3715</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>113</v>
@@ -2278,7 +2266,7 @@
         <v>114</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,7 +2287,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2314,7 +2302,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2350,37 +2338,37 @@
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>1745</v>
+        <v>1609</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>1745</v>
+        <v>1609</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,7 +2380,7 @@
         <v>292</v>
       </c>
       <c r="D27" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>33</v>
@@ -2407,7 +2395,7 @@
         <v>599</v>
       </c>
       <c r="I27" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>33</v>
@@ -2422,7 +2410,7 @@
         <v>891</v>
       </c>
       <c r="N27" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>33</v>
@@ -2436,7 +2424,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2445,13 +2433,13 @@
         <v>278</v>
       </c>
       <c r="D28" s="7">
-        <v>195996</v>
+        <v>178066</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>33</v>
@@ -2460,13 +2448,13 @@
         <v>484</v>
       </c>
       <c r="I28" s="7">
-        <v>227866</v>
+        <v>205040</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -2475,13 +2463,13 @@
         <v>762</v>
       </c>
       <c r="N28" s="7">
-        <v>423862</v>
+        <v>383106</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -2505,7 +2493,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2520,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2535,7 +2523,7 @@
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,7 +2544,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2571,7 +2559,7 @@
         <v>20</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2586,7 +2574,7 @@
         <v>20</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,7 +2595,7 @@
         <v>20</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2622,7 +2610,7 @@
         <v>20</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2637,7 +2625,7 @@
         <v>20</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,37 +2646,37 @@
         <v>20</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>1727</v>
+        <v>1483</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>1727</v>
+        <v>1483</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,7 +2688,7 @@
         <v>278</v>
       </c>
       <c r="D33" s="7">
-        <v>195996</v>
+        <v>178066</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>33</v>
@@ -2715,7 +2703,7 @@
         <v>486</v>
       </c>
       <c r="I33" s="7">
-        <v>229593</v>
+        <v>206523</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>33</v>
@@ -2730,7 +2718,7 @@
         <v>764</v>
       </c>
       <c r="N33" s="7">
-        <v>425589</v>
+        <v>384589</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>33</v>
@@ -2744,7 +2732,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2753,46 +2741,46 @@
         <v>367</v>
       </c>
       <c r="D34" s="7">
-        <v>273917</v>
+        <v>266515</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H34" s="7">
         <v>457</v>
       </c>
       <c r="I34" s="7">
-        <v>274440</v>
+        <v>255941</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="M34" s="7">
         <v>824</v>
       </c>
       <c r="N34" s="7">
-        <v>548358</v>
+        <v>522456</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,46 +2792,46 @@
         <v>3</v>
       </c>
       <c r="D35" s="7">
-        <v>2752</v>
+        <v>2605</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
       </c>
       <c r="I35" s="7">
-        <v>665</v>
+        <v>615</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M35" s="7">
         <v>4</v>
       </c>
       <c r="N35" s="7">
-        <v>3417</v>
+        <v>3220</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,16 +2852,16 @@
         <v>20</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
       </c>
       <c r="I36" s="7">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>19</v>
@@ -2885,16 +2873,16 @@
         <v>2</v>
       </c>
       <c r="N36" s="7">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,7 +2903,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -2930,7 +2918,7 @@
         <v>20</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -2945,7 +2933,7 @@
         <v>20</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,16 +2945,16 @@
         <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>554</v>
+        <v>516</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -2981,22 +2969,22 @@
         <v>20</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>554</v>
+        <v>516</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,7 +2996,7 @@
         <v>371</v>
       </c>
       <c r="D39" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>33</v>
@@ -3023,7 +3011,7 @@
         <v>460</v>
       </c>
       <c r="I39" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>33</v>
@@ -3038,7 +3026,7 @@
         <v>831</v>
       </c>
       <c r="N39" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>33</v>
@@ -3052,7 +3040,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3061,46 +3049,46 @@
         <v>582</v>
       </c>
       <c r="D40" s="7">
-        <v>605316</v>
+        <v>602021</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="H40" s="7">
         <v>935</v>
       </c>
       <c r="I40" s="7">
-        <v>784276</v>
+        <v>831094</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M40" s="7">
         <v>1517</v>
       </c>
       <c r="N40" s="7">
-        <v>1389594</v>
+        <v>1433114</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,46 +3100,46 @@
         <v>6</v>
       </c>
       <c r="D41" s="7">
-        <v>8064</v>
+        <v>7864</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
       </c>
       <c r="I41" s="7">
-        <v>4778</v>
+        <v>4467</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M41" s="7">
         <v>13</v>
       </c>
       <c r="N41" s="7">
-        <v>12842</v>
+        <v>12331</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,46 +3151,46 @@
         <v>6</v>
       </c>
       <c r="D42" s="7">
-        <v>7301</v>
+        <v>7324</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
       </c>
       <c r="I42" s="7">
-        <v>4805</v>
+        <v>4176</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M42" s="7">
         <v>10</v>
       </c>
       <c r="N42" s="7">
-        <v>12105</v>
+        <v>11501</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,46 +3202,46 @@
         <v>2</v>
       </c>
       <c r="D43" s="7">
-        <v>3713</v>
+        <v>3825</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
       </c>
       <c r="I43" s="7">
-        <v>696</v>
+        <v>651</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="M43" s="7">
         <v>3</v>
       </c>
       <c r="N43" s="7">
-        <v>4409</v>
+        <v>4476</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,7 +3253,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="7">
-        <v>2354</v>
+        <v>2315</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>46</v>
@@ -3274,37 +3262,37 @@
         <v>19</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="H44" s="7">
         <v>9</v>
       </c>
       <c r="I44" s="7">
-        <v>6496</v>
+        <v>6030</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M44" s="7">
         <v>11</v>
       </c>
       <c r="N44" s="7">
-        <v>8850</v>
+        <v>8344</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,7 +3304,7 @@
         <v>598</v>
       </c>
       <c r="D45" s="7">
-        <v>626748</v>
+        <v>623349</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>33</v>
@@ -3331,7 +3319,7 @@
         <v>956</v>
       </c>
       <c r="I45" s="7">
-        <v>801050</v>
+        <v>846418</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>33</v>
@@ -3346,7 +3334,7 @@
         <v>1554</v>
       </c>
       <c r="N45" s="7">
-        <v>1427799</v>
+        <v>1469766</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>33</v>
@@ -3360,7 +3348,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3369,46 +3357,46 @@
         <v>737</v>
       </c>
       <c r="D46" s="7">
-        <v>830533</v>
+        <v>904358</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H46" s="7">
         <v>1044</v>
       </c>
       <c r="I46" s="7">
-        <v>852835</v>
+        <v>704938</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M46" s="7">
         <v>1781</v>
       </c>
       <c r="N46" s="7">
-        <v>1683368</v>
+        <v>1609296</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,46 +3408,46 @@
         <v>16</v>
       </c>
       <c r="D47" s="7">
-        <v>18523</v>
+        <v>15590</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H47" s="7">
         <v>6</v>
       </c>
       <c r="I47" s="7">
-        <v>5915</v>
+        <v>4809</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="M47" s="7">
         <v>22</v>
       </c>
       <c r="N47" s="7">
-        <v>24439</v>
+        <v>20399</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,46 +3459,46 @@
         <v>7</v>
       </c>
       <c r="D48" s="7">
-        <v>8228</v>
+        <v>7014</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="H48" s="7">
         <v>6</v>
       </c>
       <c r="I48" s="7">
-        <v>5724</v>
+        <v>4601</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M48" s="7">
         <v>13</v>
       </c>
       <c r="N48" s="7">
-        <v>13952</v>
+        <v>11615</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,46 +3510,46 @@
         <v>1</v>
       </c>
       <c r="D49" s="7">
-        <v>954</v>
+        <v>752</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H49" s="7">
         <v>2</v>
       </c>
       <c r="I49" s="7">
-        <v>1524</v>
+        <v>1299</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="M49" s="7">
         <v>3</v>
       </c>
       <c r="N49" s="7">
-        <v>2477</v>
+        <v>2051</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,28 +3570,28 @@
         <v>20</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H50" s="7">
         <v>2</v>
       </c>
       <c r="I50" s="7">
-        <v>965</v>
+        <v>840</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="M50" s="7">
         <v>2</v>
       </c>
       <c r="N50" s="7">
-        <v>965</v>
+        <v>840</v>
       </c>
       <c r="O50" s="7" t="s">
         <v>27</v>
@@ -3612,7 +3600,7 @@
         <v>19</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,7 +3612,7 @@
         <v>761</v>
       </c>
       <c r="D51" s="7">
-        <v>858238</v>
+        <v>927714</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>33</v>
@@ -3639,7 +3627,7 @@
         <v>1060</v>
       </c>
       <c r="I51" s="7">
-        <v>866963</v>
+        <v>716487</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>33</v>
@@ -3654,7 +3642,7 @@
         <v>1821</v>
       </c>
       <c r="N51" s="7">
-        <v>1725201</v>
+        <v>1644201</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>33</v>
@@ -3677,40 +3665,40 @@
         <v>3312</v>
       </c>
       <c r="D52" s="7">
-        <v>3312347</v>
+        <v>3391790</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H52" s="7">
         <v>5285</v>
       </c>
       <c r="I52" s="7">
-        <v>3745019</v>
+        <v>3605471</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>200</v>
+        <v>71</v>
       </c>
       <c r="M52" s="7">
         <v>8597</v>
       </c>
       <c r="N52" s="7">
-        <v>7057366</v>
+        <v>6997261</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>201</v>
@@ -3728,46 +3716,46 @@
         <v>33</v>
       </c>
       <c r="D53" s="7">
-        <v>40329</v>
+        <v>37190</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H53" s="7">
         <v>23</v>
       </c>
       <c r="I53" s="7">
-        <v>18823</v>
+        <v>16862</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M53" s="7">
         <v>56</v>
       </c>
       <c r="N53" s="7">
-        <v>59153</v>
+        <v>54053</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>53</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,46 +3767,46 @@
         <v>17</v>
       </c>
       <c r="D54" s="7">
-        <v>18696</v>
+        <v>17455</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H54" s="7">
         <v>20</v>
       </c>
       <c r="I54" s="7">
-        <v>16574</v>
+        <v>14411</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M54" s="7">
         <v>37</v>
       </c>
       <c r="N54" s="7">
-        <v>35270</v>
+        <v>31866</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,37 +3818,37 @@
         <v>6</v>
       </c>
       <c r="D55" s="7">
-        <v>6447</v>
+        <v>6399</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H55" s="7">
         <v>5</v>
       </c>
       <c r="I55" s="7">
-        <v>4659</v>
+        <v>4261</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="M55" s="7">
         <v>11</v>
       </c>
       <c r="N55" s="7">
-        <v>11106</v>
+        <v>10660</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>54</v>
@@ -3881,22 +3869,22 @@
         <v>5</v>
       </c>
       <c r="D56" s="7">
-        <v>4461</v>
+        <v>4369</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>114</v>
+        <v>209</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="H56" s="7">
         <v>17</v>
       </c>
       <c r="I56" s="7">
-        <v>14520</v>
+        <v>13614</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>46</v>
@@ -3905,22 +3893,22 @@
         <v>59</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="M56" s="7">
         <v>22</v>
       </c>
       <c r="N56" s="7">
-        <v>18980</v>
+        <v>17983</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,7 +3920,7 @@
         <v>3373</v>
       </c>
       <c r="D57" s="7">
-        <v>3382280</v>
+        <v>3457204</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>33</v>
@@ -3947,7 +3935,7 @@
         <v>5350</v>
       </c>
       <c r="I57" s="7">
-        <v>3799596</v>
+        <v>3654619</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>33</v>
@@ -3962,7 +3950,7 @@
         <v>8723</v>
       </c>
       <c r="N57" s="7">
-        <v>7181876</v>
+        <v>7111823</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>33</v>
@@ -3976,7 +3964,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
